--- a/data/email_list.xlsx
+++ b/data/email_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mxmlnwbr/Documents/send-mails/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB80A80-1251-BB4E-912C-F8A23B2C33FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF0ECB-64DB-8F4B-BD4D-693C73D92ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>i4j3290inf9oq23nd</t>
   </si>
   <si>
-    <t>Marcel Schneiter</t>
+    <t>Maximilian</t>
   </si>
   <si>
     <t>Helfer (Bändeli)</t>
   </si>
   <si>
-    <t>marcel.schneiter@hotmail.ch</t>
+    <t>maximilian.weber@bluewin.ch</t>
   </si>
   <si>
     <t>Gratis</t>

--- a/data/email_list.xlsx
+++ b/data/email_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mxmlnwbr/Documents/send-mails/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F068A70-E30A-ED41-8906-66C6C1945E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C860616-B817-9548-9A67-AFE0CF02C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/email_list.xlsx
+++ b/data/email_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mxmlnwbr/Documents/send-mails/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C860616-B817-9548-9A67-AFE0CF02C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC41550-94CE-E242-8993-723AFAB63599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Nachname</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>PLZ</t>
   </si>
   <si>
@@ -156,13 +153,16 @@
   </si>
   <si>
     <t>mxjweber@gmail.com</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,9 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -570,88 +579,88 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>53355131</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
       <c r="K2">
         <v>45</v>
       </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2">
         <v>8733</v>
       </c>
       <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -660,66 +669,66 @@
         <v>45</v>
       </c>
       <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="F3">
         <v>53355131</v>
       </c>
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
       </c>
       <c r="K3">
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
         <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
       </c>
       <c r="Q3">
         <v>8733</v>
       </c>
       <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
         <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -728,66 +737,66 @@
         <v>45</v>
       </c>
       <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>41</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
       <c r="F4">
         <v>53355131</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
       </c>
       <c r="K4">
         <v>45</v>
       </c>
       <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
       </c>
       <c r="Q4">
         <v>8733</v>
       </c>
       <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
         <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -796,16 +805,16 @@
         <v>45</v>
       </c>
       <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>41</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
